--- a/tut05/output/0501CS10.xlsx
+++ b/tut05/output/0501CS10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,6 +2629,1094 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CH101</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Chemistry - I</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CH110</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Chemistry Laboratory</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>EE101</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Electrical Sciences</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>English : Language Through Literature</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MA101</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Mathematics - I</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ME110</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Workshop - I</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ME111</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Engineering Drawing</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2-0-3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PH101</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Physics - I</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CH102</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Chemistry - II</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Introduction to Computing</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CS110</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Computing Laboratory</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>EE102</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Basic Electronics Laboratory</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MA102</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Mathematics - II</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ME101</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Engineering Mechanics</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PH102</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Physics - II</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PH110</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Physics Laboratory</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CS201</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Object Oriented Programming and Data Structures</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3-0-3</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CS203</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Discrete Mathematics</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CS221</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>EE220</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Signal, System and Networks</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Introductory Microeconomics</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>HS ELECTIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MA201</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Mathematics - III</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CS204</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CS222</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Computer Organization and Architecture</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CS223</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Hardware Laboratory</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CS241</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2-0-3</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CS242</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Systems Programming Laboratory</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0-1-3</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>HS202</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Introductory Macroeconomics</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>HS Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MA225</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Probability Theory and Random Processes</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MA251</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Optimization Techniques</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Elective-Sc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CS301</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Formal Language and Automata</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CS331</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3-0-2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CS344</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Databases</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CS345</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Databases Laboratory</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0-1-3</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
